--- a/nmadb/480617.xlsx
+++ b/nmadb/480617.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="500"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>study year</t>
   </si>
@@ -27,27 +27,18 @@
     <t>study name</t>
   </si>
   <si>
-    <t>Study id</t>
-  </si>
-  <si>
     <t>t1</t>
   </si>
   <si>
     <t>t2</t>
   </si>
   <si>
-    <t>HR</t>
-  </si>
-  <si>
     <t>CIL</t>
   </si>
   <si>
     <t>CIH</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>Benefit</t>
   </si>
   <si>
@@ -130,15 +121,34 @@
   </si>
   <si>
     <t xml:space="preserve">6*BEACOPPesc </t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>effect=HR</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>se</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -287,106 +297,108 @@
   </borders>
   <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="35">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -723,18 +735,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.875" style="4"/>
     <col min="2" max="2" width="23" style="9" customWidth="1"/>
-    <col min="3" max="13" width="10.875" style="4"/>
+    <col min="3" max="8" width="10.875" style="4"/>
+    <col min="9" max="9" width="10.875" style="23"/>
+    <col min="10" max="13" width="10.875" style="4"/>
     <col min="14" max="14" width="2.625" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="33.875" style="4" customWidth="1"/>
     <col min="16" max="16384" width="10.875" style="4"/>
@@ -748,31 +762,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -783,7 +797,7 @@
         <v>1992</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -803,18 +817,25 @@
       <c r="H2" s="4">
         <v>1.37</v>
       </c>
+      <c r="I2" s="23">
+        <f>(H2-G2)/(1.96^2)</f>
+        <v>0.16659725114535615</v>
+      </c>
       <c r="M2" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N2" s="13">
         <v>1</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="B3" s="8"/>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
       <c r="D3" s="4">
         <v>5</v>
       </c>
@@ -829,6 +850,10 @@
       </c>
       <c r="H3" s="4">
         <v>1.77</v>
+      </c>
+      <c r="I3" s="23">
+        <f>(H3-G3)/(1.96^2)</f>
+        <v>0.21865889212827988</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="15"/>
@@ -836,11 +861,14 @@
         <v>2</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="B4" s="8"/>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
       <c r="D4" s="4">
         <v>5</v>
       </c>
@@ -855,6 +883,10 @@
       </c>
       <c r="H4" s="4">
         <v>2.02</v>
+      </c>
+      <c r="I4" s="23">
+        <f t="shared" ref="I4:I25" si="0">(H4-G4)/(1.96^2)</f>
+        <v>0.31236984589754274</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="15"/>
@@ -862,7 +894,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -870,7 +902,7 @@
         <v>1996</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -889,6 +921,10 @@
       </c>
       <c r="H5" s="4">
         <v>1.89</v>
+      </c>
+      <c r="I5" s="23">
+        <f t="shared" si="0"/>
+        <v>0.28373594335693458</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="15"/>
@@ -896,11 +932,14 @@
         <v>4</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="B6" s="8"/>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
       <c r="D6" s="4">
         <v>6</v>
       </c>
@@ -915,17 +954,24 @@
       </c>
       <c r="H6" s="4">
         <v>2.6</v>
+      </c>
+      <c r="I6" s="23">
+        <f t="shared" si="0"/>
+        <v>0.42430237401082888</v>
       </c>
       <c r="M6" s="17"/>
       <c r="N6" s="6">
         <v>5</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="B7" s="8"/>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
       <c r="D7" s="4">
         <v>6</v>
       </c>
@@ -940,13 +986,17 @@
       </c>
       <c r="H7" s="4">
         <v>2.4700000000000002</v>
+      </c>
+      <c r="I7" s="23">
+        <f t="shared" si="0"/>
+        <v>0.46855476884631414</v>
       </c>
       <c r="M7" s="17"/>
       <c r="N7" s="6">
         <v>6</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -954,7 +1004,7 @@
         <v>1998</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4">
         <v>3</v>
@@ -973,13 +1023,17 @@
       </c>
       <c r="H8" s="4">
         <v>1.4</v>
+      </c>
+      <c r="I8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.25510204081632654</v>
       </c>
       <c r="M8" s="17"/>
       <c r="N8" s="6">
         <v>7</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -987,7 +1041,7 @@
         <v>2013</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
@@ -1006,13 +1060,17 @@
       </c>
       <c r="H9" s="4">
         <v>1.53</v>
+      </c>
+      <c r="I9" s="23">
+        <f t="shared" si="0"/>
+        <v>0.21605581007913374</v>
       </c>
       <c r="M9" s="17"/>
       <c r="N9" s="6">
         <v>8</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1020,7 +1078,7 @@
         <v>1990</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4">
         <v>5</v>
@@ -1039,13 +1097,17 @@
       </c>
       <c r="H10" s="4">
         <v>1.38</v>
+      </c>
+      <c r="I10" s="23">
+        <f t="shared" si="0"/>
+        <v>0.15878800499791751</v>
       </c>
       <c r="M10" s="17"/>
       <c r="N10" s="6">
         <v>9</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1053,7 +1115,7 @@
         <v>2000</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4">
         <v>6</v>
@@ -1072,17 +1134,24 @@
       </c>
       <c r="H11" s="4">
         <v>1.75</v>
+      </c>
+      <c r="I11" s="23">
+        <f t="shared" si="0"/>
+        <v>0.33840066638900462</v>
       </c>
       <c r="M11" s="17"/>
       <c r="N11" s="6">
         <v>10</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1">
       <c r="B12" s="8"/>
+      <c r="C12" s="4">
+        <v>6</v>
+      </c>
       <c r="D12" s="4">
         <v>7</v>
       </c>
@@ -1097,17 +1166,24 @@
       </c>
       <c r="H12" s="4">
         <v>1.95</v>
+      </c>
+      <c r="I12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.39046230737192839</v>
       </c>
       <c r="M12" s="18"/>
       <c r="N12" s="19">
         <v>11</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="8"/>
+      <c r="C13" s="4">
+        <v>6</v>
+      </c>
       <c r="D13" s="4">
         <v>6</v>
       </c>
@@ -1122,6 +1198,10 @@
       </c>
       <c r="H13" s="4">
         <v>2.4900000000000002</v>
+      </c>
+      <c r="I13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.56486880466472322</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="10"/>
@@ -1132,7 +1212,7 @@
         <v>2011</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4">
         <v>7</v>
@@ -1151,6 +1231,13 @@
       </c>
       <c r="H14" s="4">
         <v>1.43</v>
+      </c>
+      <c r="I14" s="23">
+        <f t="shared" si="0"/>
+        <v>0.2707205331112037</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="10"/>
@@ -1161,7 +1248,7 @@
         <v>2003</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4">
         <v>8</v>
@@ -1180,6 +1267,10 @@
       </c>
       <c r="H15" s="4">
         <v>1.21</v>
+      </c>
+      <c r="I15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.20564348188254897</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="10"/>
@@ -1190,7 +1281,7 @@
         <v>1993</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" s="4">
         <v>9</v>
@@ -1210,9 +1301,16 @@
       <c r="H16" s="4">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="23">
+        <f t="shared" si="0"/>
+        <v>6.7680133277800925E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" s="8"/>
+      <c r="C17" s="4">
+        <v>9</v>
+      </c>
       <c r="D17" s="4">
         <v>9</v>
       </c>
@@ -1228,9 +1326,16 @@
       <c r="H17" s="4">
         <v>2.54</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.37224073302790506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" s="8"/>
+      <c r="C18" s="4">
+        <v>9</v>
+      </c>
       <c r="D18" s="4">
         <v>9</v>
       </c>
@@ -1246,13 +1351,17 @@
       <c r="H18" s="4">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.13275718450645568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="4">
         <v>1993</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4">
         <v>10</v>
@@ -1272,13 +1381,17 @@
       <c r="H19" s="4">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.43992086630570598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="4">
         <v>1997</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20" s="4">
         <v>11</v>
@@ -1298,13 +1411,17 @@
       <c r="H20" s="4">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="23">
+        <f t="shared" si="0"/>
+        <v>0.34360683048729695</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="4">
         <v>1998</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C21" s="4">
         <v>12</v>
@@ -1324,13 +1441,17 @@
       <c r="H21" s="4">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="23">
+        <f t="shared" si="0"/>
+        <v>0.11453561016243231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="4">
         <v>2003</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C22" s="4">
         <v>13</v>
@@ -1350,9 +1471,16 @@
       <c r="H22" s="4">
         <v>1.97</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="23">
+        <f t="shared" si="0"/>
+        <v>0.34100374843815079</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="B23" s="8"/>
+      <c r="C23" s="4">
+        <v>13</v>
+      </c>
       <c r="D23" s="4">
         <v>11</v>
       </c>
@@ -1368,9 +1496,16 @@
       <c r="H23" s="4">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="23">
+        <f t="shared" si="0"/>
+        <v>0.12234485630987091</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" s="8"/>
+      <c r="C24" s="4">
+        <v>13</v>
+      </c>
       <c r="D24" s="4">
         <v>10</v>
       </c>
@@ -1386,13 +1521,17 @@
       <c r="H24" s="4">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="23">
+        <f t="shared" si="0"/>
+        <v>0.14577259475218662</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="4">
         <v>1999</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C25" s="4">
         <v>14</v>
@@ -1411,6 +1550,10 @@
       </c>
       <c r="H25" s="4">
         <v>1.56</v>
+      </c>
+      <c r="I25" s="23">
+        <f t="shared" si="0"/>
+        <v>0.19002498958767183</v>
       </c>
     </row>
   </sheetData>
